--- a/Raw data/Islamic.xlsx
+++ b/Raw data/Islamic.xlsx
@@ -1,38 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0865a3d2f904f8f/Documents/Religion Trees/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anylabuser2/Dropbox/LEVYNA/0 - Tree study/Analysis - With Remco 2/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C6013B1-05DE-469E-846A-5552EDB0B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A894724-1D42-408C-B049-AF4F1235BF1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C7E54E-AED2-A244-AA75-F19E6BCD1C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="820" windowWidth="18240" windowHeight="10980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxa" sheetId="3" r:id="rId1"/>
     <sheet name="Key" sheetId="6" r:id="rId2"/>
     <sheet name="Refs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="394">
   <si>
     <t>Age (Low)</t>
   </si>
@@ -43,42 +33,18 @@
     <t>Age (Mean)</t>
   </si>
   <si>
-    <t>RefID</t>
-  </si>
-  <si>
-    <t>AuthorSurname</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>WebAddress</t>
-  </si>
-  <si>
-    <t>PubType</t>
-  </si>
-  <si>
-    <t>PubTypeNEW</t>
-  </si>
-  <si>
-    <t>Trustworthiness</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Juan E. Campo</t>
-  </si>
-  <si>
     <t>Encyclopedia of Islam</t>
   </si>
   <si>
-    <t>Moojan Momen</t>
-  </si>
-  <si>
     <t>An Introduction to Shiʻi Islam: The History and Doctrines of Twelver Shiʻism</t>
   </si>
   <si>
@@ -116,12 +82,6 @@
   </si>
   <si>
     <t>Taxon</t>
-  </si>
-  <si>
-    <t>Doniger, Wendy</t>
-  </si>
-  <si>
-    <t>Encyclopedia of World Religions</t>
   </si>
   <si>
     <t>~1:524-525</t>
@@ -159,9 +119,6 @@
       </rPr>
       <t>ī</t>
     </r>
-  </si>
-  <si>
-    <t>Jones, Lindsay</t>
   </si>
   <si>
     <t>~2:4561</t>
@@ -583,12 +540,6 @@
   </si>
   <si>
     <t>Deobandi</t>
-  </si>
-  <si>
-    <t>Martin et al</t>
-  </si>
-  <si>
-    <t>Encyclopaedia of Islam and the Islamic World</t>
   </si>
   <si>
     <t>Encyclopedia of Religion</t>
@@ -1625,12 +1576,57 @@
   <si>
     <t>Ismā'īlī Shi'ites who supported al-Mustaʿlī as Fatimid Imam, prior to the Ḥāfiẓī-Ṭayyibī split (2:8331-8332; 5:56).</t>
   </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Doniger, W.</t>
+  </si>
+  <si>
+    <t>DOI/ ISBN</t>
+  </si>
+  <si>
+    <t>Britannica Encyclopedia of World Religions</t>
+  </si>
+  <si>
+    <t>Jones, L.</t>
+  </si>
+  <si>
+    <t>Campo, J. E.</t>
+  </si>
+  <si>
+    <t>Encyclopaedia of Islam and the Muslim World</t>
+  </si>
+  <si>
+    <t>Martin, R. C.</t>
+  </si>
+  <si>
+    <t>Momen, M.</t>
+  </si>
+  <si>
+    <t>Yale University Press</t>
+  </si>
+  <si>
+    <t>Macmillan Reference</t>
+  </si>
+  <si>
+    <t>Reference no.</t>
+  </si>
+  <si>
+    <t>Facts on File</t>
+  </si>
+  <si>
+    <t>Encyclopaedia Britannica</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,6 +1671,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1696,7 +1699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1710,6 +1713,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2000,63 +2008,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
@@ -2068,45 +2076,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>610</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>622</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>632</v>
@@ -2115,7 +2123,7 @@
         <v>750</v>
       </c>
       <c r="P2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q33" si="0">1918-L2</f>
@@ -2130,45 +2138,45 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>632</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L3">
         <v>680</v>
       </c>
       <c r="M3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N3">
         <v>685</v>
@@ -2177,7 +2185,7 @@
         <v>743</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
@@ -2192,45 +2200,45 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>657</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L4">
         <v>657</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N4">
         <v>680</v>
@@ -2239,7 +2247,7 @@
         <v>695</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
@@ -2254,54 +2262,54 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>680</v>
       </c>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L5">
         <v>684</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -2316,45 +2324,45 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>684</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <v>684</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N6">
         <v>699</v>
@@ -2363,7 +2371,7 @@
         <v>699</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
@@ -2378,45 +2386,45 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>632</v>
       </c>
       <c r="K7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L7">
         <v>750</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="N7">
         <v>722</v>
@@ -2425,7 +2433,7 @@
         <v>772</v>
       </c>
       <c r="P7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -2440,45 +2448,45 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>695</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L8">
         <v>695</v>
       </c>
       <c r="M8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N8">
         <v>820</v>
@@ -2487,7 +2495,7 @@
         <v>920</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
@@ -2502,45 +2510,45 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J9">
         <v>685</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>743</v>
       </c>
       <c r="M9" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="N9">
         <v>732</v>
@@ -2549,7 +2557,7 @@
         <v>1067</v>
       </c>
       <c r="P9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -2564,45 +2572,45 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>685</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>743</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="N10">
         <v>1000</v>
@@ -2611,7 +2619,7 @@
         <v>1100</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
@@ -2626,45 +2634,45 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>735</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>740</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>860</v>
@@ -2673,7 +2681,7 @@
         <v>914</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -2688,45 +2696,45 @@
         <v>1180.5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>722</v>
       </c>
       <c r="K12" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L12">
         <v>772</v>
       </c>
       <c r="M12" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="N12">
         <v>765</v>
@@ -2735,7 +2743,7 @@
         <v>884</v>
       </c>
       <c r="P12" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
@@ -2750,45 +2758,45 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>722</v>
       </c>
       <c r="K13" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L13">
         <v>772</v>
       </c>
       <c r="M13" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="N13">
         <v>737</v>
@@ -2797,7 +2805,7 @@
         <v>765</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
@@ -2812,45 +2820,45 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>737</v>
       </c>
       <c r="K14" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L14">
         <v>765</v>
       </c>
       <c r="M14" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="N14">
         <v>1800</v>
@@ -2859,7 +2867,7 @@
         <v>1905</v>
       </c>
       <c r="P14" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
@@ -2874,45 +2882,45 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>755</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L15">
         <v>765</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>899</v>
@@ -2921,7 +2929,7 @@
         <v>899</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
@@ -2936,45 +2944,45 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F16" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>765</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L16">
         <v>766</v>
       </c>
       <c r="M16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N16">
         <v>972</v>
@@ -2983,7 +2991,7 @@
         <v>1022</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
@@ -2998,45 +3006,45 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>772</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L17">
         <v>796</v>
       </c>
       <c r="M17" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="N17">
         <v>1881</v>
@@ -3045,7 +3053,7 @@
         <v>1881</v>
       </c>
       <c r="P17" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -3060,54 +3068,54 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="J18">
         <v>803</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L18">
         <v>820</v>
       </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P18" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -3122,45 +3130,45 @@
         <v>1106.5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>296</v>
-      </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>750</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L19">
         <v>899</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1200</v>
@@ -3169,7 +3177,7 @@
         <v>1300</v>
       </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -3184,45 +3192,45 @@
         <v>1093.5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <v>765</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L20">
         <v>899</v>
       </c>
       <c r="M20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N20">
         <v>1132</v>
@@ -3231,7 +3239,7 @@
         <v>1232</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
@@ -3246,45 +3254,45 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J21">
         <v>732</v>
       </c>
       <c r="K21" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L21">
         <v>970</v>
       </c>
       <c r="M21" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N21">
         <v>1300</v>
@@ -3293,7 +3301,7 @@
         <v>1500</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
@@ -3308,54 +3316,54 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
         <v>283</v>
       </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>296</v>
-      </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J22">
         <v>750</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L22">
         <v>969</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -3370,54 +3378,54 @@
         <v>1058.5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>860</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L23">
         <v>860</v>
       </c>
       <c r="M23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -3432,45 +3440,45 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>884</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L24">
         <v>884</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1400</v>
@@ -3479,7 +3487,7 @@
         <v>1500</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -3494,45 +3502,45 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="J25">
         <v>899</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L25">
         <v>899</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N25">
         <v>1094</v>
@@ -3541,7 +3549,7 @@
         <v>1094</v>
       </c>
       <c r="P25" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -3556,45 +3564,45 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>899</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L26">
         <v>899</v>
       </c>
       <c r="M26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="N26">
         <v>1077</v>
@@ -3603,7 +3611,7 @@
         <v>1078</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -3618,45 +3626,45 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>732</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="L27">
         <v>1067</v>
       </c>
       <c r="M27" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="N27">
         <v>1623</v>
@@ -3665,7 +3673,7 @@
         <v>1843</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -3680,45 +3688,45 @@
         <v>1018.5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>855</v>
       </c>
       <c r="K28" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L28">
         <v>945</v>
       </c>
       <c r="M28" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N28">
         <v>1731</v>
@@ -3727,7 +3735,7 @@
         <v>1744</v>
       </c>
       <c r="P28" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -3742,45 +3750,45 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>914</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L29">
         <v>914</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1500</v>
@@ -3789,7 +3797,7 @@
         <v>1600</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -3804,54 +3812,54 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <v>996</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L30">
         <v>1021</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
@@ -3866,45 +3874,45 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>1000</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L31">
         <v>1100</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1200</v>
@@ -3913,7 +3921,7 @@
         <v>1300</v>
       </c>
       <c r="P31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
@@ -3928,45 +3936,45 @@
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J32">
         <v>1000</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L32">
         <v>1100</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N32">
         <v>1200</v>
@@ -3975,7 +3983,7 @@
         <v>1300</v>
       </c>
       <c r="P32" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
@@ -3990,45 +3998,45 @@
         <v>868</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J33">
         <v>1094</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L33">
         <v>1094</v>
       </c>
       <c r="M33" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="N33">
         <v>1130</v>
@@ -4037,7 +4045,7 @@
         <v>1130</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
@@ -4052,45 +4060,45 @@
         <v>824</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J34">
         <v>1094</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L34">
         <v>1094</v>
       </c>
       <c r="M34" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="N34">
         <v>1256</v>
@@ -4099,7 +4107,7 @@
         <v>1549</v>
       </c>
       <c r="P34" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q34">
         <f t="shared" ref="Q34:Q68" si="3">1918-L34</f>
@@ -4114,45 +4122,45 @@
         <v>824</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J35">
         <v>1130</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L35">
         <v>1130</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="N35">
         <v>1250</v>
@@ -4161,7 +4169,7 @@
         <v>1300</v>
       </c>
       <c r="P35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q35">
         <f t="shared" si="3"/>
@@ -4176,42 +4184,42 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J36">
         <v>1130</v>
       </c>
       <c r="K36" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L36">
         <v>1130</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="N36">
         <v>1590</v>
@@ -4220,7 +4228,7 @@
         <v>1591</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
@@ -4235,54 +4243,54 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <v>1256</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L37">
         <v>1500</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q37">
         <f t="shared" si="3"/>
@@ -4297,54 +4305,54 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>1300</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L38">
         <v>1500</v>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
@@ -4359,45 +4367,45 @@
         <v>518</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J39">
         <v>1256</v>
       </c>
       <c r="K39" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L39">
         <v>1549</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>1796</v>
@@ -4406,7 +4414,7 @@
         <v>1796</v>
       </c>
       <c r="P39" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
@@ -4421,54 +4429,54 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J40">
         <v>1400</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L40">
         <v>1500</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <f t="shared" si="3"/>
@@ -4483,54 +4491,54 @@
         <v>468</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J41">
         <v>1500</v>
       </c>
       <c r="K41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L41">
         <v>1600</v>
       </c>
       <c r="M41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N41" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O41" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q41">
         <f t="shared" si="3"/>
@@ -4545,54 +4553,54 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F42" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J42">
         <v>1590</v>
       </c>
       <c r="K42" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L42">
         <v>1591</v>
       </c>
       <c r="M42" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="N42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q42">
         <f t="shared" si="3"/>
@@ -4607,54 +4615,54 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J43">
         <v>1590</v>
       </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L43">
         <v>1591</v>
       </c>
       <c r="M43" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="N43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
@@ -4669,54 +4677,54 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>1621</v>
       </c>
       <c r="K44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L44">
         <v>1637</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q44">
         <f t="shared" si="3"/>
@@ -4731,54 +4739,54 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J45">
         <v>1623</v>
       </c>
       <c r="K45" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L45">
         <v>1792</v>
       </c>
       <c r="M45" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <f t="shared" si="3"/>
@@ -4793,54 +4801,54 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J46">
         <v>1623</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L46">
         <v>1792</v>
       </c>
       <c r="M46" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
@@ -4855,54 +4863,54 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J47">
         <v>1731</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L47">
         <v>1744</v>
       </c>
       <c r="M47" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P47" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="Q47">
         <f t="shared" si="3"/>
@@ -4917,54 +4925,54 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H48" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J48">
         <v>1731</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L48">
         <v>1744</v>
       </c>
       <c r="M48" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P48" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <f t="shared" si="3"/>
@@ -4979,54 +4987,54 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F49" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J49">
         <v>1761</v>
       </c>
       <c r="K49" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L49">
         <v>1761</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
@@ -5041,54 +5049,54 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G50" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J50">
         <v>1789</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L50">
         <v>1789</v>
       </c>
       <c r="M50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
@@ -5103,54 +5111,54 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J51">
         <v>1796</v>
       </c>
       <c r="K51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L51">
         <v>1796</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q51">
         <f t="shared" si="3"/>
@@ -5165,45 +5173,45 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I52" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J52">
         <v>1800</v>
       </c>
       <c r="K52" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L52">
         <v>1840</v>
       </c>
       <c r="M52" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N52">
         <v>1857</v>
@@ -5212,7 +5220,7 @@
         <v>1900</v>
       </c>
       <c r="P52" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
@@ -5227,45 +5235,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>1806</v>
       </c>
       <c r="K53" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L53">
         <v>1843</v>
       </c>
       <c r="M53" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N53">
         <v>1843</v>
@@ -5274,7 +5282,7 @@
         <v>1844</v>
       </c>
       <c r="P53" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
@@ -5289,45 +5297,45 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J54">
         <v>1843</v>
       </c>
       <c r="K54" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="L54">
         <v>1844</v>
       </c>
       <c r="M54" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N54">
         <v>1863</v>
@@ -5336,7 +5344,7 @@
         <v>1867</v>
       </c>
       <c r="P54" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
@@ -5351,54 +5359,54 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J55">
         <v>1800</v>
       </c>
       <c r="K55" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L55">
         <v>1905</v>
       </c>
       <c r="M55" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P55" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
@@ -5413,54 +5421,54 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J56">
         <v>1857</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L56">
         <v>1867</v>
       </c>
       <c r="M56" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
@@ -5475,54 +5483,54 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J57">
         <v>1863</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L57">
         <v>1867</v>
       </c>
       <c r="M57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q57">
         <f t="shared" si="3"/>
@@ -5537,54 +5545,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J58">
         <v>1863</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L58">
         <v>1867</v>
       </c>
       <c r="M58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
@@ -5599,54 +5607,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F59" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J59">
         <v>1857</v>
       </c>
       <c r="K59" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L59">
         <v>1890</v>
       </c>
       <c r="M59" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P59" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
@@ -5661,54 +5669,54 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J60">
         <v>1857</v>
       </c>
       <c r="K60" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L60">
         <v>1898</v>
       </c>
       <c r="M60" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="N60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
@@ -5723,54 +5731,54 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F61" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J61">
         <v>1881</v>
       </c>
       <c r="K61" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L61">
         <v>1881</v>
       </c>
       <c r="M61" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="N61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P61" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
@@ -5785,54 +5793,54 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J62">
         <v>1881</v>
       </c>
       <c r="K62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L62">
         <v>1881</v>
       </c>
       <c r="M62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="N62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
@@ -5847,54 +5855,54 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J63">
         <v>1883</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L63">
         <v>1884</v>
       </c>
       <c r="M63" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="N63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P63" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
@@ -5909,54 +5917,54 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J64">
         <v>1880</v>
       </c>
       <c r="K64" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L64">
         <v>1890</v>
       </c>
       <c r="M64" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="N64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P64" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
@@ -5971,45 +5979,45 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G65" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="H65" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J65">
         <v>1889</v>
       </c>
       <c r="K65" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L65">
         <v>1889</v>
       </c>
       <c r="M65" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N65">
         <v>1914</v>
@@ -6018,7 +6026,7 @@
         <v>1914</v>
       </c>
       <c r="P65" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q65">
         <f t="shared" si="3"/>
@@ -6033,54 +6041,54 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J66">
         <v>1897</v>
       </c>
       <c r="K66" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L66">
         <v>1905</v>
       </c>
       <c r="M66" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P66" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q66">
         <f t="shared" si="3"/>
@@ -6095,54 +6103,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F67" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J67">
         <v>1914</v>
       </c>
       <c r="K67" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L67">
         <v>1914</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P67" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q67">
         <f t="shared" si="3"/>
@@ -6157,54 +6165,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F68" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J68">
         <v>1914</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L68">
         <v>1914</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P68" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q68">
         <f t="shared" si="3"/>
@@ -6220,7 +6228,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S68">
+  <sortState ref="A2:S68">
     <sortCondition descending="1" ref="S2:S68"/>
     <sortCondition ref="A2:A68"/>
   </sortState>
@@ -6233,393 +6241,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+  <sortState ref="A2:C47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6629,120 +6637,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="10"/>
+    <col min="4" max="4" width="57.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2006</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9781593392666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="11">
+        <v>9780028659817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2009</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="12">
+        <v>9781438126968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2003</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9780028656038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1987</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>2006</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>2005</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>2009</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5">
-        <v>2003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>1987</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="E6" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9780300035315</v>
       </c>
     </row>
   </sheetData>
